--- a/src/ExcelsiorAspose.Tests/Tests.GlobalStyle.DotNet.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.GlobalStyle.DotNet.verified.xlsx
@@ -528,13 +528,12 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="2"/>
-    <col min="2" max="2" width="11.8571428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7142857142857" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.7142857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.28571428571429" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.28571428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.71428571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.71428571428571" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.71428571428571" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>

--- a/src/ExcelsiorAspose.Tests/Tests.GlobalStyle.DotNet.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.GlobalStyle.DotNet.verified.xlsx
@@ -517,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -527,130 +527,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="2"/>
-    <col min="2" max="3" width="11.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.7142857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.71428571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.71428571428571" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.71428571428571" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="2" width="11.7142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.7142857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.71428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.71428571428571" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:7" ht="12.75">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43845</v>
+      </c>
+      <c r="E2" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43546</v>
+      </c>
+      <c r="E3" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44387</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43845</v>
-      </c>
-      <c r="F2" s="3">
-        <v>75000</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43409</v>
+      </c>
+      <c r="E5" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="12.75">
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43546</v>
-      </c>
-      <c r="F3" s="3">
-        <v>120000</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="12.75">
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
-        <v>44387</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45000</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="12.75">
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43409</v>
-      </c>
-      <c r="F5" s="3">
-        <v>95000</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
